--- a/[5] Tester Results/TEST_SEX_AVG_ACROSS_DATES_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_SEX_AVG_ACROSS_DATES_PARAMETRIC.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.05415825836631</v>
+        <v>14.33953576494668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001001429213181154</v>
+        <v>8.730298771957237e-18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.396931493458004</v>
+        <v>2.83965122101762</v>
       </c>
       <c r="E2" t="n">
-        <v>4818.128521786496</v>
+        <v>1790.599180827887</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.27149675876425</v>
+        <v>14.04110456128453</v>
       </c>
       <c r="C3" t="n">
-        <v>3.329098377236907e-12</v>
+        <v>1.165662660639093e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>2.430118472867328</v>
+        <v>2.780553036406889</v>
       </c>
       <c r="E3" t="n">
-        <v>69.02536056644881</v>
+        <v>35.00317753957366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.1698616727933</v>
+        <v>13.39482078834618</v>
       </c>
       <c r="C4" t="n">
-        <v>7.401893628701818e-12</v>
+        <v>9.704334422911011e-17</v>
       </c>
       <c r="D4" t="n">
-        <v>2.409991726736456</v>
+        <v>2.652569778438771</v>
       </c>
       <c r="E4" t="n">
-        <v>62.96930174291941</v>
+        <v>31.62318771754745</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.806823575249446</v>
+        <v>13.94762149866655</v>
       </c>
       <c r="C5" t="n">
-        <v>5.823404310458548e-09</v>
+        <v>1.52109581772308e-15</v>
       </c>
       <c r="D5" t="n">
-        <v>1.942040453487793</v>
+        <v>2.762040631454665</v>
       </c>
       <c r="E5" t="n">
-        <v>24.49880718954249</v>
+        <v>12.21074618736384</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1696316604658494</v>
+        <v>-8.431116872347452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09696544540268816</v>
+        <v>3.752134315420057e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03359207436426292</v>
+        <v>-1.669609931140802</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01590413943355181</v>
+        <v>-5.607189542483662</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6477706862506883</v>
+        <v>-8.351671381451419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1381588903554755</v>
+        <v>6.624719125704959e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1282777106806866</v>
+        <v>-1.653877379618546</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3254901960784338</v>
+        <v>-5.575381263616555</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -651,16 +651,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.20744819871873</v>
+        <v>14.26086661895486</v>
       </c>
       <c r="C8" t="n">
-        <v>3.909782572129127e-12</v>
+        <v>5.560052749979929e-17</v>
       </c>
       <c r="D8" t="n">
-        <v>2.417434967995275</v>
+        <v>2.824072408695244</v>
       </c>
       <c r="E8" t="n">
-        <v>69.44488017429194</v>
+        <v>36.86023965141613</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.66507922858089</v>
+        <v>0.598420960574841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1503763721573956</v>
+        <v>0.5305981963788208</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3297348214081727</v>
+        <v>0.1185050087557841</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3413943355119826</v>
+        <v>0.03180827886710243</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.071494900126599</v>
+        <v>4.88744422811322</v>
       </c>
       <c r="C10" t="n">
-        <v>1.423227213862336e-07</v>
+        <v>0.1764912826929073</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.202335151511152</v>
+        <v>0.9678581787803671</v>
       </c>
       <c r="E10" t="n">
-        <v>-38.07341176470587</v>
+        <v>5067.436892156862</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>

--- a/[5] Tester Results/TEST_SEX_AVG_ACROSS_DATES_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_SEX_AVG_ACROSS_DATES_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,20 +589,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.431116872347452</v>
+        <v>14.26086661895486</v>
       </c>
       <c r="C6" t="n">
-        <v>3.752134315420057e-12</v>
+        <v>5.560052749979929e-17</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.669609931140802</v>
+        <v>2.824072408695244</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.607189542483662</v>
+        <v>36.86023965141613</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -647,20 +647,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.26086661895486</v>
+        <v>4.88744422811322</v>
       </c>
       <c r="C8" t="n">
-        <v>5.560052749979929e-17</v>
+        <v>0.1764912826929073</v>
       </c>
       <c r="D8" t="n">
-        <v>2.824072408695244</v>
+        <v>0.9678581787803671</v>
       </c>
       <c r="E8" t="n">
-        <v>36.86023965141613</v>
+        <v>5067.436892156862</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -668,64 +668,6 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.598420960574841</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5305981963788208</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1185050087557841</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.03180827886710243</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.88744422811322</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1764912826929073</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9678581787803671</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5067.436892156862</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>ttest_ind</t>
         </is>
